--- a/Books/Processes-Chart-New.xlsx
+++ b/Books/Processes-Chart-New.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kiran\docs\others\DB\Dropbox\Docs\Kiran\Git\PMI\PMI\Books\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,7 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Integration Mgt" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Scope Mgt" sheetId="2" r:id="rId2"/>
+    <sheet name="Time Mgt" sheetId="3" r:id="rId3"/>
+    <sheet name="Cost Mgt" sheetId="4" r:id="rId4"/>
+    <sheet name="Quality Mgt" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
   <si>
     <t>Knowledge Area</t>
   </si>
@@ -52,6 +55,26 @@
 Integration
 Management</t>
   </si>
+  <si>
+    <t>Project
+Scope
+Management</t>
+  </si>
+  <si>
+    <t>Project
+Time
+Management</t>
+  </si>
+  <si>
+    <t>Project
+Cost
+Management</t>
+  </si>
+  <si>
+    <t>Project
+Quality
+Management</t>
+  </si>
 </sst>
 </file>
 
@@ -74,15 +97,45 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1B1E9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -142,17 +195,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -175,12 +256,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF1B1E9"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -322,6 +435,12 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -450,6 +569,906 @@
         <a:xfrm>
           <a:off x="7343775" y="4295775"/>
           <a:ext cx="1752381" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1742869</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>75904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A022007D-D500-46BE-9D6F-58D21701151F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3067050" y="647700"/>
+          <a:ext cx="1647619" cy="2371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1809750</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3457369</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9064</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020592B0-DB6B-494F-946D-AE6625F109A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="600075"/>
+          <a:ext cx="1647619" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1752389</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F320E91-827C-4290-ABB6-E7E74963CDAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1933575" y="3124200"/>
+          <a:ext cx="1685714" cy="2390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1800225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3476415</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>94933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A189FFD-344C-4D11-9656-96907D624E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3667125" y="4314825"/>
+          <a:ext cx="1676190" cy="2533333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1809543</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>37758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEBFC9A2-940A-430B-8B05-316C3979BC2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867400" y="628650"/>
+          <a:ext cx="1657143" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1828587</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EE4E4EF-F3B0-45B2-A934-334E7B8ADE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="3419475"/>
+          <a:ext cx="1704762" cy="2961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>59532</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1659532</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>185426</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AED715B-8A94-4533-BC0E-985E061CFAB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2024063" y="631032"/>
+          <a:ext cx="1600000" cy="2495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1738313</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3338313</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>16326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5DE584-AF59-4809-B6A5-307143142589}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3702844" y="595313"/>
+          <a:ext cx="1600000" cy="2742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1657149</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47221</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9466AE7D-F2E0-4E1F-B5B5-026D164CFEF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2012156" y="3178970"/>
+          <a:ext cx="1609524" cy="3238095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3362125</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>70931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6C0EA2-6928-4F0C-959F-C99B1EE70A6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3726656" y="3345656"/>
+          <a:ext cx="1600000" cy="4047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83345</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1702393</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>156652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FCD262E-AD96-4C4A-9103-8F4B311C8327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047876" y="6441282"/>
+          <a:ext cx="1619048" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1774032</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3412127</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>173157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEF3FCE6-693F-4D37-8EDD-21058ABEA2B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3738563" y="7429501"/>
+          <a:ext cx="1638095" cy="5400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>83344</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1692868</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>185212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5C2D44E-E040-4176-B72D-B0A3F369A991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6250782" y="631032"/>
+          <a:ext cx="1609524" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2177143</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4300953</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168108</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E10484E8-A00F-4943-8674-B1CF16AB519D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4150179" y="612322"/>
+          <a:ext cx="2123810" cy="4971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54428</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2197285</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>111071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CDA5EFA-4E5E-4293-9CC8-37AE7756F871}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2027464" y="3565071"/>
+          <a:ext cx="2142857" cy="4057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68036</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2172798</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>187416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7ACFAEAB-0B3B-47F9-A3CC-65DA2571083B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2041072" y="612321"/>
+          <a:ext cx="2104762" cy="2895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>68035</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2201368</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>119178</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{030BAB9D-CCF4-4BA8-B03E-3B7FD6D00D27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7742464" y="639535"/>
+          <a:ext cx="2133333" cy="4514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2161911</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D09D18A-14B2-47C0-BA09-9CCE3B4FB11D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1885950" y="600075"/>
+          <a:ext cx="2114286" cy="4580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2161910</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28111</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE529121-BBF0-41B3-BD80-9E2014E63985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4114800" y="590550"/>
+          <a:ext cx="2123810" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2161911</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>85112</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C05C8752-C072-47EE-B07E-B69D5E42B466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6296025" y="600075"/>
+          <a:ext cx="2114286" cy="4904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -764,7 +1783,7 @@
   <dimension ref="B2:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,212 +1799,1786 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="B2:B3"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G37"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="53.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.75" header="0" footer="0.3"/>
+  <pageSetup scale="80" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G64"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="51.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="15"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="15"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="15"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="15"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="15"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="15"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G38"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G26"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
@@ -995,434 +3588,13 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="91" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="9"/>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:G2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.2" top="0.25" bottom="0.75" header="0" footer="0.3"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Books/Processes-Chart-New.xlsx
+++ b/Books/Processes-Chart-New.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9180" tabRatio="887" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Integration Mgt" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,10 @@
     <sheet name="Time Mgt" sheetId="3" r:id="rId3"/>
     <sheet name="Cost Mgt" sheetId="4" r:id="rId4"/>
     <sheet name="Quality Mgt" sheetId="5" r:id="rId5"/>
+    <sheet name="HR Mgt" sheetId="6" r:id="rId6"/>
+    <sheet name="Communications Mgt" sheetId="7" r:id="rId7"/>
+    <sheet name="Risk Mgt" sheetId="8" r:id="rId8"/>
+    <sheet name="Procurement Mgt" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>Knowledge Area</t>
   </si>
@@ -73,6 +77,24 @@
   <si>
     <t>Project
 Quality
+Management</t>
+  </si>
+  <si>
+    <t>Project
+Human Resource
+Management</t>
+  </si>
+  <si>
+    <t>M &amp; C</t>
+  </si>
+  <si>
+    <t>Project
+Communications
+Management</t>
+  </si>
+  <si>
+    <t>Project
+Risk
 Management</t>
   </si>
 </sst>
@@ -1480,6 +1502,774 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2171432</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>113851</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{123F3555-E2C4-4814-BEC7-CCF945CFAD16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="609600"/>
+          <a:ext cx="2142857" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2161911</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0892B596-9648-4576-9F03-45C026B7FCE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="647700"/>
+          <a:ext cx="2114286" cy="3714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4295505</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85257</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56381268-5244-41F3-9026-CA6179384FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6429375" y="619125"/>
+          <a:ext cx="2161905" cy="3742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2228583</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60582A4B-9D85-4D57-9111-450E113A7A8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4362450" y="4362450"/>
+          <a:ext cx="2133333" cy="4628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2133338</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFD2C71-D3A7-4B95-A501-8F60A0784163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="600075"/>
+          <a:ext cx="2095238" cy="3590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2161911</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE01B93E-9DE9-4309-AE83-3BC245833B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="609600"/>
+          <a:ext cx="2114286" cy="4142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2152387</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>18564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{699CD0D1-7A5C-4DCD-848B-46B5F3844190}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6477000" y="600075"/>
+          <a:ext cx="2104762" cy="3885714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2161911</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E7E0F5-6B63-4F3F-9B72-C44F6F9B11F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="619125"/>
+          <a:ext cx="2114286" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2152650</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4276460</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94613</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEBCCF8-A7AD-40BF-9469-CEDAF70AAEE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3933825" y="609600"/>
+          <a:ext cx="2123810" cy="5095238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2180960</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6F0385-D3A6-4E80-86B7-1A1B0A69848D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="3562350"/>
+          <a:ext cx="2123810" cy="3600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4314561</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>66249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB3784C7-A686-4622-9B72-BF630B762AB9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3981450" y="5695950"/>
+          <a:ext cx="2114286" cy="3409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2171436</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E70E0F5-6CB5-4816-B7E3-C3B0B7AA09E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="7162800"/>
+          <a:ext cx="2114286" cy="3276190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2161912</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4398FF9-8D3A-489F-80F3-B085D5B86141}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="609600"/>
+          <a:ext cx="2104762" cy="4142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2161913</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>37469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AAED13F-6A9A-4374-97D6-7856EC4FE615}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="600075"/>
+          <a:ext cx="2095238" cy="5047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2152387</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>8877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80583831-13E6-4A20-B8EE-79F489FCF2BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4143375" y="628650"/>
+          <a:ext cx="2104762" cy="5180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2161910</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142282</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D798BF51-30D8-4A35-A634-D714954CAF43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6324600" y="628650"/>
+          <a:ext cx="2123810" cy="4742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2152385</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C880C0-FE7B-492B-939C-316EFA0F2371}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8543925" y="619125"/>
+          <a:ext cx="2123810" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1782,9 +2572,7 @@
   </sheetPr>
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2456,9 +3244,7 @@
   </sheetPr>
   <dimension ref="B2:G64"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
-    </sheetView>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3010,9 +3796,7 @@
   </sheetPr>
   <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3356,9 +4140,7 @@
   </sheetPr>
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3597,4 +4379,1504 @@
   <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="64.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="68" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="15"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="4" width="65" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="70" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Books/Processes-Chart-New.xlsx
+++ b/Books/Processes-Chart-New.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9180" tabRatio="887" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9180" tabRatio="887"/>
   </bookViews>
   <sheets>
     <sheet name="Integration Mgt" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Communications Mgt" sheetId="7" r:id="rId7"/>
     <sheet name="Risk Mgt" sheetId="8" r:id="rId8"/>
     <sheet name="Procurement Mgt" sheetId="9" r:id="rId9"/>
+    <sheet name="Stakeholder Mgt" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="18">
   <si>
     <t>Knowledge Area</t>
   </si>
@@ -95,6 +96,16 @@
   <si>
     <t>Project
 Risk
+Management</t>
+  </si>
+  <si>
+    <t>Project
+Procurement
+Management</t>
+  </si>
+  <si>
+    <t>Project
+Stakeholder
 Management</t>
   </si>
 </sst>
@@ -591,6 +602,187 @@
         <a:xfrm>
           <a:off x="7343775" y="4295775"/>
           <a:ext cx="1752381" cy="3228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>41461</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>81242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2784318</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>137922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F18DB67-CCA2-4F9E-AC1F-011EF21F7737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1150843" y="652742"/>
+          <a:ext cx="2742857" cy="3765827"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28015</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2818491</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2CE01E-F6AA-4D25-B5EA-1C3548FCA865}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3972486" y="619125"/>
+          <a:ext cx="2790476" cy="4209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2856030</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>124328</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E6F8EB-F906-457B-822D-5AD62255E278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6846795" y="605118"/>
+          <a:ext cx="2800000" cy="4942857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2867235</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>137191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F56D5840-D45E-44F1-B6EE-A4B5A959C4D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="627529"/>
+          <a:ext cx="2800000" cy="5123809"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2572,7 +2764,7 @@
   </sheetPr>
   <dimension ref="B2:G37"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2897,6 +3089,264 @@
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:G27"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="43.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="50" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5624,7 +6074,7 @@
   </sheetPr>
   <dimension ref="B2:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5670,7 +6120,7 @@
     </row>
     <row r="4" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -5876,7 +6326,7 @@
     <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.2" right="0.2" top="0.25" bottom="0.25" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="63" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="45" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>